--- a/enzyme tut kinetics calculations.xlsx
+++ b/enzyme tut kinetics calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\biochem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDA333-8814-4D01-ABC8-225FD36C6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E91B9D4-5F5B-4100-827F-5E87671EAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00583280-E2E7-46C4-BF68-3E0509A6128F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>question 7.1</t>
   </si>
@@ -270,12 +270,54 @@
   <si>
     <t>vmax, app</t>
   </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>x-intercept</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>between -2.2 and -2.4</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LB A</t>
+    </r>
+  </si>
+  <si>
+    <t>2° LB B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +345,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,12 +461,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -435,6 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2962,7 +3010,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,7 +3486,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,56 +3796,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dixon plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3856,36 +3855,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="3"/>
+            <c:backward val="3000"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3897,7 +3869,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,7 +3949,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="3"/>
+            <c:backward val="3000"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3991,7 +3963,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +4043,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="3"/>
+            <c:backward val="3000"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -4082,7 +4054,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4151,7 +4123,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="3"/>
+            <c:backward val="3000"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -4162,7 +4134,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4245,7 +4217,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="3"/>
+            <c:backward val="3000"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -4256,7 +4228,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4322,7 +4294,25 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-ZA"/>
-                  <a:t>[I]</a:t>
+                  <a:t>[I] (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA">
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>mol.L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4387,7 +4377,6 @@
         <c:crossAx val="702409535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="702409535"/>
@@ -4414,7 +4403,41 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-ZA"/>
-                  <a:t>1/V0</a:t>
+                  <a:t>1/V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="-25000"/>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA">
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>mol.L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="30000"/>
+                  <a:t>-1.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>sec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ZA"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8652,16 +8675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9072,50 +9095,50 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="15"/>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>147</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <f>1/A4</f>
         <v>0.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>1/B4</f>
         <v>6.8027210884353739E-3</v>
       </c>
@@ -9129,17 +9152,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>6.67</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>182</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <f t="shared" ref="C5:C8" si="0">1/A5</f>
         <v>0.14992503748125938</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D8" si="1">1/B5</f>
         <v>5.4945054945054949E-3</v>
       </c>
@@ -9153,17 +9176,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>233</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>4.2918454935622317E-3</v>
       </c>
@@ -9177,17 +9200,17 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>323</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>3.0959752321981426E-3</v>
       </c>
@@ -9201,17 +9224,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>40</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>400</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -9236,7 +9259,7 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9321,27 +9344,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
@@ -9358,14 +9381,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>50</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0.68400000000000005</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="2"/>
       <c r="E4">
         <f>1/A4</f>
         <v>0.02</v>
@@ -9376,14 +9399,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1.08</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="2"/>
       <c r="E5">
         <f t="shared" ref="E5:E10" si="0">1/A5</f>
         <v>0.05</v>
@@ -9394,16 +9417,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1.43</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1.01</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>0.65300000000000002</v>
       </c>
       <c r="E6">
@@ -9424,16 +9447,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>1.02</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>0.64900000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>0.46800000000000003</v>
       </c>
       <c r="E7">
@@ -9454,16 +9477,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>3.3</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>0.36299999999999999</v>
       </c>
       <c r="E8">
@@ -9484,16 +9507,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>2.5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>0.65700000000000003</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>0.374</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>0.29599999999999999</v>
       </c>
       <c r="E9">
@@ -9514,16 +9537,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>0.54900000000000004</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>0.311</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.25</v>
       </c>
       <c r="E10">
@@ -9602,8 +9625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290304F-EC98-440E-A974-50EF80D0032C}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9658,7 +9681,7 @@
         <f>A4*1000</f>
         <v>5000</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D4">
@@ -9718,7 +9741,7 @@
         <f t="shared" si="0"/>
         <v>6670</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D6">
@@ -9778,7 +9801,7 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D8">
@@ -9838,7 +9861,7 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D10">
@@ -9898,7 +9921,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12">
@@ -9974,7 +9997,7 @@
         <f>A17*1000</f>
         <v>5000</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D17">
@@ -10006,7 +10029,7 @@
         <f t="shared" si="1"/>
         <v>6670</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D19">
@@ -10038,7 +10061,7 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D21">
@@ -10070,7 +10093,7 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D23">
@@ -10102,7 +10125,7 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D25">
@@ -10367,7 +10390,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B53">
         <v>2168.1999999999998</v>
@@ -10400,6 +10423,15 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -10411,16 +10443,42 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <f>-1521.2/647</f>
+        <v>-2.3511591962905718</v>
+      </c>
+      <c r="G57">
+        <v>2.3511591962905718</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5000</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C58">
         <v>0.54298642533936659</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58">
+        <f>-0.0753/0.0317</f>
+        <v>-2.3753943217665618</v>
+      </c>
+      <c r="G58">
+        <v>2.3753943217665618</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -10433,13 +10491,19 @@
       <c r="C59">
         <v>0.375</v>
       </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6670</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C60">
         <v>0.42704626334519569</v>
@@ -10461,7 +10525,7 @@
         <v>10000</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C62">
         <v>0.32697547683923706</v>
@@ -10483,7 +10547,7 @@
         <v>20000</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C64">
         <v>0.21505376344086019</v>
@@ -10505,7 +10569,7 @@
         <v>50000</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C66">
         <v>0.15037593984962405</v>
@@ -10526,7 +10590,7 @@
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="13">
         <f>0.0753*(1+(3/2.4))</f>
         <v>0.16942500000000002</v>
       </c>
@@ -10535,7 +10599,7 @@
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="13">
         <f>1/0.169425</f>
         <v>5.902316659288771</v>
       </c>
